--- a/购销台账.xlsx
+++ b/购销台账.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>执行进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>交货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,85 +436,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,175 +795,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="13" width="10.375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="15.75" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="26" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:31" s="21" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+    </row>
+    <row r="2" spans="1:31" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="I2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="Y2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B3" s="5">
         <v>9427.1</v>
@@ -978,48 +966,45 @@
       <c r="C3" s="5">
         <v>1724.8</v>
       </c>
-      <c r="D3" s="6">
-        <f>B3*C3</f>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>9427.1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="23">
+        <f>O3*P3*N3/12/B3</f>
+        <v>86.24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="5">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5">
         <v>16259862.08</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>9427.1</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="31">
-        <f>P3*Q3*O3/12/B3</f>
-        <v>86.24</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="5">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5">
-        <v>16259862.08</v>
-      </c>
-      <c r="Q3" s="7">
+      <c r="P3" s="6">
         <v>0.1</v>
       </c>
-      <c r="R3" s="5">
+      <c r="Q3" s="5">
         <v>125</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="20">
-        <f>C3+M3+R3</f>
+      <c r="R3" s="5"/>
+      <c r="S3" s="15">
+        <f>C3+L3+Q3</f>
         <v>1936.04</v>
       </c>
-      <c r="U3" s="25"/>
-      <c r="V3" s="22"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
@@ -1029,11 +1014,10 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-    </row>
-    <row r="4" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
+    </row>
+    <row r="4" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>4496.38</v>
@@ -1041,48 +1025,45 @@
       <c r="C4" s="5">
         <v>1641.2099999999998</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D17" si="0">B4*C4</f>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
+        <v>4496.38</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="23">
+        <f>O4*P4*N4/12/B4</f>
+        <v>82.060500000000005</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5">
+        <v>6</v>
+      </c>
+      <c r="O4" s="5">
         <v>7379503.8197999997</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>4496.38</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="31">
-        <f>P4*Q4*O4/12/B4</f>
-        <v>82.060500000000005</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="5">
-        <v>6</v>
-      </c>
-      <c r="P4" s="5">
-        <v>7379503.8197999997</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="6">
         <v>0.1</v>
       </c>
-      <c r="R4" s="5">
+      <c r="Q4" s="5">
         <v>152.19999999999999</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="20">
-        <f t="shared" ref="T4:T17" si="1">C4+M4+R4</f>
+      <c r="R4" s="5"/>
+      <c r="S4" s="15">
+        <f>C4+L4+Q4</f>
         <v>1875.4704999999999</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="22"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -1092,11 +1073,10 @@
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-    </row>
-    <row r="5" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
+    </row>
+    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="5">
         <v>17007.98</v>
@@ -1104,48 +1084,45 @@
       <c r="C5" s="5">
         <v>1646.31</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>17007.98</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="23">
+        <f>O5*P5*N5/12/B5</f>
+        <v>82.315499999999986</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5">
         <v>28000407.553799998</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>17007.98</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="31">
-        <f>P5*Q5*O5/12/B5</f>
-        <v>82.315499999999986</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="5">
-        <v>6</v>
-      </c>
-      <c r="P5" s="5">
-        <v>28000407.553799998</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="P5" s="6">
         <v>0.1</v>
       </c>
-      <c r="R5" s="5">
+      <c r="Q5" s="5">
         <v>162.69999999999999</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="20">
-        <f t="shared" si="1"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="15">
+        <f>C5+L5+Q5</f>
         <v>1891.3254999999999</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="22"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1155,58 +1132,54 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-    </row>
-    <row r="6" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9"/>
+    </row>
+    <row r="6" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <v>2236.3799999999978</v>
       </c>
       <c r="C6" s="5">
         <v>1646.31</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
+        <v>2236.3799999999978</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="23">
+        <f>O6*P6*N6/12/B6</f>
+        <v>82.315500000000014</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
+      </c>
+      <c r="O6" s="5">
         <v>3681774.7577999965</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>2236.3799999999978</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="31">
-        <f>P6*Q6*O6/12/B6</f>
-        <v>82.315500000000014</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="5">
-        <v>6</v>
-      </c>
-      <c r="P6" s="5">
-        <v>3681774.7577999965</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="6">
         <v>0.1</v>
       </c>
-      <c r="R6" s="5">
+      <c r="Q6" s="5">
         <v>148</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="20">
-        <f t="shared" si="1"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="15">
+        <f>C6+L6+Q6</f>
         <v>1876.6254999999999</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="22"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
@@ -1216,58 +1189,54 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-    </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
+    </row>
+    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <v>39.86</v>
       </c>
       <c r="C7" s="5">
         <v>1710</v>
       </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
+        <v>39.86</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="23">
+        <f>O7*P7*N7/12/B7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
         <v>68160.600000000006</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>39.86</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="31">
-        <f>P7*Q7*O7/12/B7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0</v>
-      </c>
-      <c r="P7" s="5">
-        <v>68160.600000000006</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="6">
         <v>0.1</v>
       </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="5">
         <v>148</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="20">
-        <f t="shared" si="1"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="15">
+        <f>C7+L7+Q7</f>
         <v>1858</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="22"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -1277,11 +1246,10 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>33</v>
+    </row>
+    <row r="8" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="5">
         <v>2924.5989603711364</v>
@@ -1289,48 +1257,45 @@
       <c r="C8" s="5">
         <v>1777.68</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>5199001.0798725616</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>2924.5989603711364</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="23">
+        <f>O8*P8*N8/12/B8</f>
+        <v>85.481805672349211</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
-        <v>2924.5989603711364</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="31">
-        <f>P8*Q8*O8/12/B8</f>
-        <v>85.481805672349211</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>39</v>
+      <c r="N8" s="5">
+        <v>6</v>
       </c>
       <c r="O8" s="5">
-        <v>6</v>
-      </c>
-      <c r="P8" s="5">
         <v>5000000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="6">
         <v>0.1</v>
       </c>
-      <c r="R8" s="5">
+      <c r="Q8" s="5">
         <v>144.1</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="20">
-        <f t="shared" si="1"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="15">
+        <f>C8+L8+Q8</f>
         <v>2007.2618056723493</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="22"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
@@ -1340,58 +1305,54 @@
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-    </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
+    </row>
+    <row r="9" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <v>940.4</v>
       </c>
       <c r="C9" s="5">
         <v>1777.68</v>
       </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>940.4</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="23">
+        <f>O9*P9*N9/12/B9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
         <v>1671730.2720000001</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <v>940.4</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="31">
-        <f>P9*Q9*O9/12/B9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1671730.2720000001</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="6">
         <v>0.1</v>
       </c>
-      <c r="R9" s="5">
+      <c r="Q9" s="5">
         <v>144.1</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="20">
-        <f t="shared" si="1"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="15">
+        <f>C9+L9+Q9</f>
         <v>1921.78</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
@@ -1401,11 +1362,10 @@
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-    </row>
-    <row r="10" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>34</v>
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>5589.82</v>
@@ -1413,48 +1373,45 @@
       <c r="C10" s="5">
         <v>1807</v>
       </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>10100804.74</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
+        <v>5589.82</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="23">
+        <f>O10*P10*N10/12/B10</f>
+        <v>85.691489171386564</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>5589.82</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="31">
-        <f>P10*Q10*O10/12/B10</f>
-        <v>85.691489171386564</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>39</v>
+      <c r="N10" s="5">
+        <v>6</v>
       </c>
       <c r="O10" s="5">
-        <v>6</v>
-      </c>
-      <c r="P10" s="5">
         <v>9580000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="6">
         <v>0.1</v>
       </c>
-      <c r="R10" s="5">
+      <c r="Q10" s="5">
         <v>106.3</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="20">
-        <f t="shared" si="1"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="15">
+        <f>C10+L10+Q10</f>
         <v>1998.9914891713865</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
@@ -1464,58 +1421,54 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-    </row>
-    <row r="11" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9"/>
+    </row>
+    <row r="11" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <v>3309.2</v>
       </c>
       <c r="C11" s="5">
         <v>1807</v>
       </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
+        <v>3309.2</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="23">
+        <f>O11*P11*N11/12/B11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
         <v>5979724.3999999994</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
-        <v>3309.2</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="31">
-        <f>P11*Q11*O11/12/B11</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>5979724.3999999994</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="6">
         <v>0.1</v>
       </c>
-      <c r="R11" s="5">
+      <c r="Q11" s="5">
         <v>106.3</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="20">
-        <f t="shared" si="1"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="15">
+        <f>C11+L11+Q11</f>
         <v>1913.3</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="22"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
@@ -1525,41 +1478,37 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-    </row>
-    <row r="12" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9"/>
+    </row>
+    <row r="12" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5">
         <v>1807</v>
       </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="31"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="20">
-        <f t="shared" si="1"/>
+      <c r="S12" s="15">
+        <f>C12+L12+Q12</f>
         <v>1807</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="22"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
@@ -1569,11 +1518,10 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-    </row>
-    <row r="13" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="5">
         <v>2881.7220936078984</v>
@@ -1581,48 +1529,45 @@
       <c r="C13" s="5">
         <v>1788.89</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>5155083.8360342337</v>
-      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <v>2881.7220936078984</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="23">
+        <f>O13*P13*N13/12/B13</f>
+        <v>86.753681263900617</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>2881.7220936078984</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="31">
-        <f>P13*Q13*O13/12/B13</f>
-        <v>86.753681263900617</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>39</v>
+      <c r="N13" s="5">
+        <v>6</v>
       </c>
       <c r="O13" s="5">
-        <v>6</v>
-      </c>
-      <c r="P13" s="5">
         <v>5000000</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="6">
         <v>0.1</v>
       </c>
-      <c r="R13" s="5">
+      <c r="Q13" s="5">
         <v>109.3</v>
       </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="20">
-        <f t="shared" si="1"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="15">
+        <f>C13+L13+Q13</f>
         <v>1984.9436812639008</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="22"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -1632,58 +1577,54 @@
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-    </row>
-    <row r="14" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+    </row>
+    <row r="14" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <v>195.95790639210145</v>
       </c>
       <c r="C14" s="5">
         <v>1788.89</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
+        <v>195.95790639210145</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="23">
+        <f>O14*P14*N14/12/B14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <v>350547.13916576636</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>195.95790639210145</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="31">
-        <f>P14*Q14*O14/12/B14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>350547.13916576636</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="P14" s="6">
         <v>0.1</v>
       </c>
-      <c r="R14" s="5">
+      <c r="Q14" s="5">
         <v>109.3</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="20">
-        <f t="shared" si="1"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="15">
+        <f>C14+L14+Q14</f>
         <v>1898.19</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="V14" s="22"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
@@ -1693,11 +1634,10 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
+    </row>
+    <row r="15" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="5">
         <v>5000</v>
@@ -1705,39 +1645,36 @@
       <c r="C15" s="5">
         <v>1890</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>9450000</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8">
         <v>43646</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="31"/>
+      <c r="K15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="20">
-        <f t="shared" si="1"/>
+      <c r="S15" s="15">
+        <f>C15+L15+Q15</f>
         <v>1890</v>
       </c>
-      <c r="U15" s="25"/>
-      <c r="V15" s="22"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
@@ -1747,11 +1684,10 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5">
         <v>2000</v>
@@ -1759,39 +1695,36 @@
       <c r="C16" s="5">
         <v>1900</v>
       </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>3800000</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43621</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="10">
-        <v>43621</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="31"/>
+      <c r="K16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="20">
-        <f t="shared" si="1"/>
+      <c r="S16" s="15">
+        <f>C16+L16+Q16</f>
         <v>1900</v>
       </c>
-      <c r="U16" s="25"/>
-      <c r="V16" s="22"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -1801,11 +1734,10 @@
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
         <v>2000</v>
@@ -1813,39 +1745,36 @@
       <c r="C17" s="5">
         <v>1900</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>3800000</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
         <v>43621</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="22"/>
+      <c r="K17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="11">
-        <f t="shared" si="1"/>
+      <c r="S17" s="9">
+        <f>C17+L17+Q17</f>
         <v>1900</v>
       </c>
-      <c r="U17" s="25"/>
-      <c r="V17" s="22"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -1855,9 +1784,8 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1868,18 +1796,18 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="22"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="22"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
@@ -1889,9 +1817,8 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1902,18 +1829,18 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="22"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="22"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -1923,9 +1850,8 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1936,18 +1862,18 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="22"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -1957,9 +1883,8 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1970,18 +1895,18 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="22"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="22"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -1991,9 +1916,8 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -2004,18 +1928,18 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="22"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -2025,9 +1949,8 @@
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2038,18 +1961,18 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="22"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
@@ -2059,9 +1982,8 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-    </row>
-    <row r="24" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2072,18 +1994,18 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="22"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="22"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
@@ -2093,9 +2015,8 @@
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-    </row>
-    <row r="25" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2106,18 +2027,18 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="22"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="22"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -2127,15 +2048,14 @@
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-    </row>
-    <row r="26" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="26" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -2154,13 +2074,13 @@
     <row r="48" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="U1:AE1"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="V1:AF1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
